--- a/subtitle-merge/srt2ass/doc/设计.xlsx
+++ b/subtitle-merge/srt2ass/doc/设计.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_GitHub\java-architect-util\subtitle-merge\srt2ass\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF0030-B929-4076-B818-42D17A1A119D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C972F7-BD51-465C-BB56-CB3615A51F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2330" yWindow="1660" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="964">
   <si>
     <t>id</t>
   </si>
@@ -3390,6 +3392,208 @@
 1819	01:48:39,620	01:48:29,610	.	null	</t>
     </r>
   </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Fontname</t>
+  </si>
+  <si>
+    <t>Fontsize</t>
+  </si>
+  <si>
+    <t>PrimaryColour</t>
+  </si>
+  <si>
+    <t>SecondaryColour</t>
+  </si>
+  <si>
+    <t>TertiaryColour</t>
+  </si>
+  <si>
+    <t>BackColour</t>
+  </si>
+  <si>
+    <t>Bold</t>
+  </si>
+  <si>
+    <t>Italic</t>
+  </si>
+  <si>
+    <t>BorderStyle</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>MarginL</t>
+  </si>
+  <si>
+    <t>MarginR</t>
+  </si>
+  <si>
+    <t>MarginV</t>
+  </si>
+  <si>
+    <t>AlphaLevel</t>
+  </si>
+  <si>
+    <t>Encoding</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>华文彩云</t>
+  </si>
+  <si>
+    <t>&amp;Hff0000</t>
+  </si>
+  <si>
+    <t>&amp;Hff8080</t>
+  </si>
+  <si>
+    <t>&amp;Hffffff</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>华文新魏</t>
+  </si>
+  <si>
+    <t>&amp;HFF0000</t>
+  </si>
+  <si>
+    <t>&amp;HFF80FF0</t>
+  </si>
+  <si>
+    <t>#DB9211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文对白</t>
+  </si>
+  <si>
+    <t>Microsoft YaHei</t>
+  </si>
+  <si>
+    <t>&amp;H00C8FAFA</t>
+  </si>
+  <si>
+    <t>&amp;H000000FF</t>
+  </si>
+  <si>
+    <t>&amp;H00000000</t>
+  </si>
+  <si>
+    <t>英文对白</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>SimSun</t>
+  </si>
+  <si>
+    <t>&amp;H00FFFFFF</t>
+  </si>
+  <si>
+    <t>&amp;H0000FFFF</t>
+  </si>
+  <si>
+    <t>字幕组</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fontname</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fontsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PrimaryColour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SecondaryColour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OutlineColour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BackColour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Underline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StrikeOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ScaleX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ScaleY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BorderStyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MarginL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MarginR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MarginV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Encoding</t>
+  </si>
+  <si>
+    <t>#F9F7F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3493,7 +3697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3502,16 +3706,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3911,78 +4118,78 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4007,4200 +4214,4200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B859C3F-033B-479B-A0C5-03991E7EBF0F}">
   <dimension ref="B1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.58203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="7"/>
-    <col min="7" max="7" width="4.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="82.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="1.58203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="6"/>
+    <col min="7" max="7" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>4</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="7" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>17</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>36</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>20</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>50</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>21</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>53</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>22</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>23</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>76</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>26</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>81</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>32</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>82</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>35</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>102</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>36</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>107</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>39</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>116</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>40</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>125</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>43</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>128</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>44</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>145</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>45</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>165</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>47</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>186</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>48</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>190</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>49</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>193</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>59</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>194</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>60</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="6" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>217</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>61</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>219</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>70</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="6" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>223</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>74</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="7" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>227</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>75</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="7" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>231</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>76</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="7" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>237</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>78</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>241</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>79</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="6" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>245</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>82</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="6" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>248</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>83</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="6" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>252</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>89</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>273</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>90</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="6" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>288</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>95</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="6" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>293</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>99</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="6" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>297</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>101</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="6" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>315</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>102</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="6" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>326</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>108</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="6" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>344</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>116</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="6" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>354</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>117</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="6" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>363</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>118</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="6" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>373</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>119</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="6" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>375</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>133</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="6" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>383</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <v>134</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="6" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>390</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>135</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="6" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>395</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <v>136</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="6" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>397</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>145</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="6" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>401</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="6">
         <v>146</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="6" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>407</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <v>155</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="6" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>409</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <v>156</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="6" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>421</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <v>175</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="6" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>439</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <v>178</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="6" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>448</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <v>180</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="6" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>462</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <v>189</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="6" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>471</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="6">
         <v>190</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="6" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>491</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <v>202</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="6" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>509</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="6">
         <v>203</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="6" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>536</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="6">
         <v>204</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="6" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>568</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="6">
         <v>205</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="6" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>611</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="6">
         <v>206</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="6" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>614</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="6">
         <v>207</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="6" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>622</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="6">
         <v>208</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="6" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>633</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="6">
         <v>211</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="6" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>652</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
         <v>212</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="6" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>658</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="6">
         <v>213</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="6" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>667</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="6">
         <v>214</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="6" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>681</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="6">
         <v>219</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="6" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>724</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="6">
         <v>220</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="6" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>734</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="6">
         <v>221</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="6" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>752</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="6">
         <v>222</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="6" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>775</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="6">
         <v>223</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="6" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>778</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="6">
         <v>224</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="6" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>784</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="6">
         <v>226</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="6" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>825</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="6">
         <v>228</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="6" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>830</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="6">
         <v>229</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I85" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="6" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>856</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="6">
         <v>231</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <v>877</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="6">
         <v>232</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="6" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>884</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="6">
         <v>251</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>893</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="6">
         <v>256</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>904</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="6">
         <v>257</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>1065</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="6">
         <v>266</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>1066</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="6">
         <v>270</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>1140</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="6">
         <v>273</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <v>1141</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="6">
         <v>277</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="6" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>1142</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="6">
         <v>278</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>1143</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="6">
         <v>280</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="6" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>1144</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="6">
         <v>281</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="6" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <v>1145</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="6">
         <v>284</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="6" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>1146</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="6">
         <v>285</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I99" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="6" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>1147</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="6">
         <v>292</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="6" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>1149</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G101" s="7">
+      <c r="G101" s="6">
         <v>295</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="6" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B102" s="7">
+      <c r="B102" s="6">
         <v>1150</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102" s="6">
         <v>296</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="6" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B103" s="7">
+      <c r="B103" s="6">
         <v>1151</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103" s="6">
         <v>297</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I103" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="6" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>1153</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="6">
         <v>298</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I104" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J104" s="6" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <v>1154</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105" s="6">
         <v>299</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I105" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="J105" s="6" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>1155</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106" s="6">
         <v>303</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="6" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <v>1156</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107" s="6">
         <v>312</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I107" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J107" s="6" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>1269</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108" s="6">
         <v>313</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="I108" s="7" t="s">
+      <c r="I108" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="J108" s="6" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B109" s="7">
+      <c r="B109" s="6">
         <v>1461</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109" s="6">
         <v>318</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="J109" s="6" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>1462</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G110" s="6">
         <v>319</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="I110" s="7" t="s">
+      <c r="I110" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="J110" s="7" t="s">
+      <c r="J110" s="6" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>1463</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111" s="6">
         <v>321</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="I111" s="7" t="s">
+      <c r="I111" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="6" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>1464</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G112" s="6">
         <v>322</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I112" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="J112" s="6" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>1465</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G113" s="7">
+      <c r="G113" s="6">
         <v>323</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H113" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I113" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="J113" s="7" t="s">
+      <c r="J113" s="6" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>1466</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G114" s="7">
+      <c r="G114" s="6">
         <v>325</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I114" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="J114" s="7" t="s">
+      <c r="J114" s="6" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>1467</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G115" s="7">
+      <c r="G115" s="6">
         <v>326</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="J115" s="7" t="s">
+      <c r="J115" s="6" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>1468</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G116" s="7">
+      <c r="G116" s="6">
         <v>330</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H116" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I116" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J116" s="6" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>1469</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G117" s="6">
         <v>331</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H117" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I117" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J117" s="6" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B118" s="7">
+      <c r="B118" s="6">
         <v>1470</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="G118" s="7">
+      <c r="G118" s="6">
         <v>333</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H118" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="I118" s="7" t="s">
+      <c r="I118" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="J118" s="6" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B119" s="7">
+      <c r="B119" s="6">
         <v>1471</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G119" s="7">
+      <c r="G119" s="6">
         <v>334</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H119" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="I119" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="J119" s="7" t="s">
+      <c r="J119" s="6" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <v>1472</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G120" s="7">
+      <c r="G120" s="6">
         <v>338</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H120" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="I120" s="7" t="s">
+      <c r="I120" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J120" s="7" t="s">
+      <c r="J120" s="6" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="7">
+      <c r="B121" s="6">
         <v>1473</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G121" s="7">
+      <c r="G121" s="6">
         <v>347</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="H121" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="I121" s="7" t="s">
+      <c r="I121" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J121" s="7" t="s">
+      <c r="J121" s="6" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B122" s="7">
+      <c r="B122" s="6">
         <v>1474</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="G122" s="7">
+      <c r="G122" s="6">
         <v>348</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H122" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="I122" s="7" t="s">
+      <c r="I122" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J122" s="7" t="s">
+      <c r="J122" s="6" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B123" s="7">
+      <c r="B123" s="6">
         <v>1475</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="G123" s="7">
+      <c r="G123" s="6">
         <v>355</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="H123" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="I123" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="J123" s="7" t="s">
+      <c r="J123" s="6" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B124" s="7">
+      <c r="B124" s="6">
         <v>1476</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G124" s="7">
+      <c r="G124" s="6">
         <v>356</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="I124" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="J124" s="6" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B125" s="7">
+      <c r="B125" s="6">
         <v>1477</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="G125" s="7">
+      <c r="G125" s="6">
         <v>357</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="H125" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="I125" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="J125" s="7" t="s">
+      <c r="J125" s="6" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B126" s="7">
+      <c r="B126" s="6">
         <v>1478</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G126" s="7">
+      <c r="G126" s="6">
         <v>358</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H126" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="I126" s="7" t="s">
+      <c r="I126" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="J126" s="7" t="s">
+      <c r="J126" s="6" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>1479</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="G127" s="7">
+      <c r="G127" s="6">
         <v>361</v>
       </c>
-      <c r="H127" s="7" t="s">
+      <c r="H127" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="I127" s="7" t="s">
+      <c r="I127" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="J127" s="7" t="s">
+      <c r="J127" s="6" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>1480</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="G128" s="7">
+      <c r="G128" s="6">
         <v>365</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="H128" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="I128" s="7" t="s">
+      <c r="I128" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J128" s="7" t="s">
+      <c r="J128" s="6" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <v>1481</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="G129" s="7">
+      <c r="G129" s="6">
         <v>366</v>
       </c>
-      <c r="H129" s="7" t="s">
+      <c r="H129" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="I129" s="7" t="s">
+      <c r="I129" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J129" s="7" t="s">
+      <c r="J129" s="6" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <v>1482</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G130" s="7">
+      <c r="G130" s="6">
         <v>369</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="H130" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="I130" s="7" t="s">
+      <c r="I130" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J130" s="7" t="s">
+      <c r="J130" s="6" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B131" s="7">
+      <c r="B131" s="6">
         <v>1483</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="G131" s="7">
+      <c r="G131" s="6">
         <v>372</v>
       </c>
-      <c r="H131" s="7" t="s">
+      <c r="H131" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="I131" s="7" t="s">
+      <c r="I131" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="J131" s="7" t="s">
+      <c r="J131" s="6" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <v>1484</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="G132" s="7">
+      <c r="G132" s="6">
         <v>373</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="H132" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="I132" s="7" t="s">
+      <c r="I132" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="J132" s="7" t="s">
+      <c r="J132" s="6" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B133" s="7">
+      <c r="B133" s="6">
         <v>1485</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G133" s="7">
+      <c r="G133" s="6">
         <v>374</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="H133" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="I133" s="7" t="s">
+      <c r="I133" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J133" s="7" t="s">
+      <c r="J133" s="6" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B134" s="7">
+      <c r="B134" s="6">
         <v>1486</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="G134" s="7">
+      <c r="G134" s="6">
         <v>375</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="H134" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="I134" s="7" t="s">
+      <c r="I134" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="J134" s="7" t="s">
+      <c r="J134" s="6" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B135" s="7">
+      <c r="B135" s="6">
         <v>1487</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="G135" s="7">
+      <c r="G135" s="6">
         <v>376</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H135" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="I135" s="7" t="s">
+      <c r="I135" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="J135" s="7" t="s">
+      <c r="J135" s="6" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B136" s="7">
+      <c r="B136" s="6">
         <v>1673</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="G136" s="7">
+      <c r="G136" s="6">
         <v>382</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H136" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="I136" s="7" t="s">
+      <c r="I136" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="J136" s="7" t="s">
+      <c r="J136" s="6" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B137" s="7">
+      <c r="B137" s="6">
         <v>1799</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E137" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G137" s="7">
+      <c r="G137" s="6">
         <v>383</v>
       </c>
-      <c r="H137" s="7" t="s">
+      <c r="H137" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="I137" s="7" t="s">
+      <c r="I137" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="J137" s="7" t="s">
+      <c r="J137" s="6" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B138" s="7">
+      <c r="B138" s="6">
         <v>1886</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="G138" s="7">
+      <c r="G138" s="6">
         <v>387</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H138" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="I138" s="7" t="s">
+      <c r="I138" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J138" s="7" t="s">
+      <c r="J138" s="6" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B139" s="7">
+      <c r="B139" s="6">
         <v>1887</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139" s="6">
         <v>404</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H139" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="I139" s="7" t="s">
+      <c r="I139" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J139" s="7" t="s">
+      <c r="J139" s="6" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B140" s="7">
+      <c r="B140" s="6">
         <v>1888</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="G140" s="7">
+      <c r="G140" s="6">
         <v>408</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="H140" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="I140" s="7" t="s">
+      <c r="I140" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="J140" s="7" t="s">
+      <c r="J140" s="6" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B141" s="7">
+      <c r="B141" s="6">
         <v>1889</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="G141" s="7">
+      <c r="G141" s="6">
         <v>409</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H141" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="I141" s="7" t="s">
+      <c r="I141" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="J141" s="7" t="s">
+      <c r="J141" s="6" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B142" s="7">
+      <c r="B142" s="6">
         <v>1890</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G142" s="7">
+      <c r="G142" s="6">
         <v>412</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="H142" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="I142" s="7" t="s">
+      <c r="I142" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J142" s="7" t="s">
+      <c r="J142" s="6" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B143" s="7">
+      <c r="B143" s="6">
         <v>1891</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G143" s="7">
+      <c r="G143" s="6">
         <v>413</v>
       </c>
-      <c r="H143" s="7" t="s">
+      <c r="H143" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="I143" s="7" t="s">
+      <c r="I143" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="J143" s="7" t="s">
+      <c r="J143" s="6" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B144" s="7">
+      <c r="B144" s="6">
         <v>1892</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G144" s="7">
+      <c r="G144" s="6">
         <v>425</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H144" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="I144" s="7" t="s">
+      <c r="I144" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J144" s="7" t="s">
+      <c r="J144" s="6" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <v>1893</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145" s="6">
         <v>426</v>
       </c>
-      <c r="H145" s="7" t="s">
+      <c r="H145" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="I145" s="7" t="s">
+      <c r="I145" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="J145" s="7" t="s">
+      <c r="J145" s="6" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B146" s="7">
+      <c r="B146" s="6">
         <v>1894</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="G146" s="7">
+      <c r="G146" s="6">
         <v>427</v>
       </c>
-      <c r="H146" s="7" t="s">
+      <c r="H146" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="I146" s="7" t="s">
+      <c r="I146" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="J146" s="7" t="s">
+      <c r="J146" s="6" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G147" s="7">
+      <c r="G147" s="6">
         <v>433</v>
       </c>
-      <c r="H147" s="7" t="s">
+      <c r="H147" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="I147" s="7" t="s">
+      <c r="I147" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="J147" s="7" t="s">
+      <c r="J147" s="6" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G148" s="7">
+      <c r="G148" s="6">
         <v>434</v>
       </c>
-      <c r="H148" s="7" t="s">
+      <c r="H148" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="I148" s="7" t="s">
+      <c r="I148" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="J148" s="7" t="s">
+      <c r="J148" s="6" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G149" s="7">
+      <c r="G149" s="6">
         <v>435</v>
       </c>
-      <c r="H149" s="7" t="s">
+      <c r="H149" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="I149" s="7" t="s">
+      <c r="I149" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="J149" s="7" t="s">
+      <c r="J149" s="6" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G150" s="7">
+      <c r="G150" s="6">
         <v>436</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="I150" s="7" t="s">
+      <c r="I150" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="J150" s="7" t="s">
+      <c r="J150" s="6" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G151" s="7">
+      <c r="G151" s="6">
         <v>448</v>
       </c>
-      <c r="H151" s="7" t="s">
+      <c r="H151" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="I151" s="7" t="s">
+      <c r="I151" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="J151" s="7" t="s">
+      <c r="J151" s="6" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G152" s="7">
+      <c r="G152" s="6">
         <v>449</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H152" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="I152" s="7" t="s">
+      <c r="I152" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="J152" s="7" t="s">
+      <c r="J152" s="6" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G153" s="7">
+      <c r="G153" s="6">
         <v>452</v>
       </c>
-      <c r="H153" s="7" t="s">
+      <c r="H153" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="I153" s="7" t="s">
+      <c r="I153" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J153" s="7" t="s">
+      <c r="J153" s="6" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G154" s="7">
+      <c r="G154" s="6">
         <v>453</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="H154" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="I154" s="7" t="s">
+      <c r="I154" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="J154" s="7" t="s">
+      <c r="J154" s="6" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G155" s="7">
+      <c r="G155" s="6">
         <v>454</v>
       </c>
-      <c r="H155" s="7" t="s">
+      <c r="H155" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="I155" s="7" t="s">
+      <c r="I155" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="J155" s="7" t="s">
+      <c r="J155" s="6" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G156" s="7">
+      <c r="G156" s="6">
         <v>461</v>
       </c>
-      <c r="H156" s="7" t="s">
+      <c r="H156" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="I156" s="7" t="s">
+      <c r="I156" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="J156" s="7" t="s">
+      <c r="J156" s="6" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G157" s="7">
+      <c r="G157" s="6">
         <v>462</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="H157" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="I157" s="7" t="s">
+      <c r="I157" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="J157" s="7" t="s">
+      <c r="J157" s="6" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G158" s="7">
+      <c r="G158" s="6">
         <v>470</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H158" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="I158" s="7" t="s">
+      <c r="I158" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J158" s="7" t="s">
+      <c r="J158" s="6" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G159" s="7">
+      <c r="G159" s="6">
         <v>475</v>
       </c>
-      <c r="H159" s="7" t="s">
+      <c r="H159" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="I159" s="7" t="s">
+      <c r="I159" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="J159" s="7" t="s">
+      <c r="J159" s="6" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G160" s="7">
+      <c r="G160" s="6">
         <v>476</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="H160" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="I160" s="7" t="s">
+      <c r="I160" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="J160" s="7" t="s">
+      <c r="J160" s="6" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="161" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G161" s="7">
+      <c r="G161" s="6">
         <v>487</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H161" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="I161" s="7" t="s">
+      <c r="I161" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="J161" s="7" t="s">
+      <c r="J161" s="6" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="162" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G162" s="7">
+      <c r="G162" s="6">
         <v>488</v>
       </c>
-      <c r="H162" s="7" t="s">
+      <c r="H162" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="I162" s="7" t="s">
+      <c r="I162" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="J162" s="7" t="s">
+      <c r="J162" s="6" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="163" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G163" s="7">
+      <c r="G163" s="6">
         <v>494</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="H163" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="I163" s="7" t="s">
+      <c r="I163" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="J163" s="7" t="s">
+      <c r="J163" s="6" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="164" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G164" s="7">
+      <c r="G164" s="6">
         <v>495</v>
       </c>
-      <c r="H164" s="7" t="s">
+      <c r="H164" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="I164" s="7" t="s">
+      <c r="I164" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="J164" s="7" t="s">
+      <c r="J164" s="6" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="165" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G165" s="7">
+      <c r="G165" s="6">
         <v>498</v>
       </c>
-      <c r="H165" s="7" t="s">
+      <c r="H165" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="I165" s="7" t="s">
+      <c r="I165" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J165" s="7" t="s">
+      <c r="J165" s="6" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="166" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G166" s="7">
+      <c r="G166" s="6">
         <v>500</v>
       </c>
-      <c r="H166" s="7" t="s">
+      <c r="H166" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="I166" s="7" t="s">
+      <c r="I166" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="J166" s="7" t="s">
+      <c r="J166" s="6" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="167" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G167" s="7">
+      <c r="G167" s="6">
         <v>501</v>
       </c>
-      <c r="H167" s="7" t="s">
+      <c r="H167" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="I167" s="7" t="s">
+      <c r="I167" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="J167" s="7" t="s">
+      <c r="J167" s="6" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="168" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G168" s="7">
+      <c r="G168" s="6">
         <v>506</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H168" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="I168" s="7" t="s">
+      <c r="I168" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="J168" s="7" t="s">
+      <c r="J168" s="6" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="169" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G169" s="7">
+      <c r="G169" s="6">
         <v>507</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="H169" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="I169" s="7" t="s">
+      <c r="I169" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="J169" s="7" t="s">
+      <c r="J169" s="6" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="170" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G170" s="7">
+      <c r="G170" s="6">
         <v>509</v>
       </c>
-      <c r="H170" s="7" t="s">
+      <c r="H170" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="I170" s="7" t="s">
+      <c r="I170" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="J170" s="7" t="s">
+      <c r="J170" s="6" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="171" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G171" s="7">
+      <c r="G171" s="6">
         <v>510</v>
       </c>
-      <c r="H171" s="7" t="s">
+      <c r="H171" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="I171" s="7" t="s">
+      <c r="I171" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="J171" s="7" t="s">
+      <c r="J171" s="6" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="172" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G172" s="7">
+      <c r="G172" s="6">
         <v>514</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H172" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="I172" s="7" t="s">
+      <c r="I172" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="J172" s="7" t="s">
+      <c r="J172" s="6" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="173" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G173" s="7">
+      <c r="G173" s="6">
         <v>515</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H173" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="I173" s="7" t="s">
+      <c r="I173" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="J173" s="7" t="s">
+      <c r="J173" s="6" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="174" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G174" s="7">
+      <c r="G174" s="6">
         <v>522</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H174" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="I174" s="7" t="s">
+      <c r="I174" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="J174" s="7" t="s">
+      <c r="J174" s="6" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="175" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G175" s="7">
+      <c r="G175" s="6">
         <v>523</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H175" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="I175" s="7" t="s">
+      <c r="I175" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="J175" s="7" t="s">
+      <c r="J175" s="6" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="176" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G176" s="7">
+      <c r="G176" s="6">
         <v>530</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H176" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="I176" s="7" t="s">
+      <c r="I176" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="J176" s="7" t="s">
+      <c r="J176" s="6" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="177" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G177" s="7">
+      <c r="G177" s="6">
         <v>531</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="H177" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="I177" s="7" t="s">
+      <c r="I177" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="J177" s="7" t="s">
+      <c r="J177" s="6" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="178" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G178" s="7">
+      <c r="G178" s="6">
         <v>532</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="I178" s="7" t="s">
+      <c r="I178" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J178" s="7" t="s">
+      <c r="J178" s="6" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="179" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G179" s="7">
+      <c r="G179" s="6">
         <v>534</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H179" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="I179" s="7" t="s">
+      <c r="I179" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="J179" s="7" t="s">
+      <c r="J179" s="6" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="180" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G180" s="7">
+      <c r="G180" s="6">
         <v>535</v>
       </c>
-      <c r="H180" s="7" t="s">
+      <c r="H180" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="I180" s="7" t="s">
+      <c r="I180" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="J180" s="7" t="s">
+      <c r="J180" s="6" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="181" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G181" s="7">
+      <c r="G181" s="6">
         <v>537</v>
       </c>
-      <c r="H181" s="7" t="s">
+      <c r="H181" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="I181" s="7" t="s">
+      <c r="I181" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="J181" s="7" t="s">
+      <c r="J181" s="6" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="182" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G182" s="7">
+      <c r="G182" s="6">
         <v>538</v>
       </c>
-      <c r="H182" s="7" t="s">
+      <c r="H182" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="I182" s="7" t="s">
+      <c r="I182" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="J182" s="7" t="s">
+      <c r="J182" s="6" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="183" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G183" s="7">
+      <c r="G183" s="6">
         <v>539</v>
       </c>
-      <c r="H183" s="7" t="s">
+      <c r="H183" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="I183" s="7" t="s">
+      <c r="I183" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="J183" s="7" t="s">
+      <c r="J183" s="6" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="184" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G184" s="7">
+      <c r="G184" s="6">
         <v>540</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="H184" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="I184" s="7" t="s">
+      <c r="I184" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="J184" s="7" t="s">
+      <c r="J184" s="6" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="185" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G185" s="7">
+      <c r="G185" s="6">
         <v>544</v>
       </c>
-      <c r="H185" s="7" t="s">
+      <c r="H185" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="I185" s="7" t="s">
+      <c r="I185" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="J185" s="7" t="s">
+      <c r="J185" s="6" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="186" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G186" s="7">
+      <c r="G186" s="6">
         <v>545</v>
       </c>
-      <c r="H186" s="7" t="s">
+      <c r="H186" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="I186" s="7" t="s">
+      <c r="I186" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="J186" s="7" t="s">
+      <c r="J186" s="6" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="187" spans="7:10" x14ac:dyDescent="0.4">
-      <c r="G187" s="7">
+      <c r="G187" s="6">
         <v>551</v>
       </c>
-      <c r="H187" s="7" t="s">
+      <c r="H187" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="I187" s="7" t="s">
+      <c r="I187" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="J187" s="7" t="s">
+      <c r="J187" s="6" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="188" spans="7:10" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="G188" s="7">
+      <c r="G188" s="6">
         <v>552</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H188" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="I188" s="7" t="s">
+      <c r="I188" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="J188" s="10" t="s">
+      <c r="J188" s="8" t="s">
         <v>897</v>
       </c>
     </row>
@@ -8216,4 +8423,1234 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9108B4D9-99C5-471B-AB35-1E490156D5BA}">
+  <dimension ref="B7:Y77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="16.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>20</v>
+      </c>
+      <c r="R8" s="2">
+        <v>20</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>20</v>
+      </c>
+      <c r="R9" s="2">
+        <v>20</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="C21" s="11">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="C32" s="11">
+        <v>20</v>
+      </c>
+      <c r="D32" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="C33" s="11">
+        <v>20</v>
+      </c>
+      <c r="D33" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="C34" s="11">
+        <v>20</v>
+      </c>
+      <c r="D34" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="C36" s="11">
+        <v>134</v>
+      </c>
+      <c r="D36" s="11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B49" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B50" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E50" s="2">
+        <v>75</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>100</v>
+      </c>
+      <c r="O50" s="2">
+        <v>100</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1</v>
+      </c>
+      <c r="U50" s="2">
+        <v>2</v>
+      </c>
+      <c r="V50" s="2">
+        <v>15</v>
+      </c>
+      <c r="W50" s="2">
+        <v>15</v>
+      </c>
+      <c r="X50" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B51" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E51" s="2">
+        <v>52</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>100</v>
+      </c>
+      <c r="O51" s="2">
+        <v>100</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1</v>
+      </c>
+      <c r="T51" s="2">
+        <v>1</v>
+      </c>
+      <c r="U51" s="2">
+        <v>2</v>
+      </c>
+      <c r="V51" s="2">
+        <v>15</v>
+      </c>
+      <c r="W51" s="2">
+        <v>15</v>
+      </c>
+      <c r="X51" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E52" s="2">
+        <v>75</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>100</v>
+      </c>
+      <c r="O52" s="2">
+        <v>100</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>2</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>60</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E53" s="2">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <v>100</v>
+      </c>
+      <c r="O53" s="2">
+        <v>100</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1</v>
+      </c>
+      <c r="S53" s="2">
+        <v>3</v>
+      </c>
+      <c r="T53" s="2">
+        <v>3</v>
+      </c>
+      <c r="U53" s="2">
+        <v>2</v>
+      </c>
+      <c r="V53" s="2">
+        <v>15</v>
+      </c>
+      <c r="W53" s="2">
+        <v>15</v>
+      </c>
+      <c r="X53" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B54" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B55" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B56" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B57" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C57" s="2">
+        <v>75</v>
+      </c>
+      <c r="D57" s="2">
+        <v>52</v>
+      </c>
+      <c r="E57" s="2">
+        <v>75</v>
+      </c>
+      <c r="F57" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B58" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B59" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B60" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B61" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B62" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B63" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="B64" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B65" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C66" s="2">
+        <v>100</v>
+      </c>
+      <c r="D66" s="2">
+        <v>100</v>
+      </c>
+      <c r="E66" s="2">
+        <v>100</v>
+      </c>
+      <c r="F66" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C67" s="2">
+        <v>100</v>
+      </c>
+      <c r="D67" s="2">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2">
+        <v>100</v>
+      </c>
+      <c r="F67" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B68" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B71" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B72" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C74" s="2">
+        <v>15</v>
+      </c>
+      <c r="D74" s="2">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B75" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C75" s="2">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B76" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2">
+        <v>60</v>
+      </c>
+      <c r="F76" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B77" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E970E6-B8F4-48BF-8DD6-07C31EA460B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>